--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.9170733133374551</v>
+        <v>0.7557598745023819</v>
       </c>
       <c r="D2">
-        <v>0.359235930322015</v>
+        <v>0.4578094384047755</v>
       </c>
       <c r="E2">
         <v>3.469258101803694</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.080159208285301</v>
+        <v>0.9583265794869448</v>
       </c>
       <c r="D3">
-        <v>0.2802264218773434</v>
+        <v>0.3483122001019088</v>
       </c>
       <c r="E3">
         <v>3.469258101803694</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.6061568813196172</v>
+        <v>-0.6894842416093365</v>
       </c>
       <c r="D4">
-        <v>0.5444925208822302</v>
+        <v>0.4977272484470396</v>
       </c>
       <c r="E4">
         <v>3.469258101803694</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-2.394063327833568</v>
+        <v>-1.695898350113051</v>
       </c>
       <c r="D5">
-        <v>0.01677200953244906</v>
+        <v>0.1040125237119105</v>
       </c>
       <c r="E5">
         <v>3.469258101803694</v>
@@ -531,7 +528,7 @@
         <v>5.028707629585581</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.01406523606247537</v>
+        <v>0.0140105156756316</v>
       </c>
       <c r="D6">
-        <v>0.9887796063552616</v>
+        <v>0.9889478732056229</v>
       </c>
       <c r="E6">
         <v>2.901109183586942</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.807969779847453</v>
+        <v>-1.407285853708961</v>
       </c>
       <c r="D7">
-        <v>0.0707900781856885</v>
+        <v>0.1733146228724503</v>
       </c>
       <c r="E7">
         <v>2.901109183586942</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.765542946984074</v>
+        <v>-2.016036870015598</v>
       </c>
       <c r="D8">
-        <v>0.005745021258219962</v>
+        <v>0.05616913431786719</v>
       </c>
       <c r="E8">
         <v>2.901109183586942</v>
@@ -609,7 +606,7 @@
         <v>5.028707629585581</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>40</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.938667506828876</v>
+        <v>-1.986347489107073</v>
       </c>
       <c r="D9">
-        <v>0.05270923582408793</v>
+        <v>0.05959207241818421</v>
       </c>
       <c r="E9">
         <v>2.89488124401165</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.715997661643008</v>
+        <v>-1.898559588264946</v>
       </c>
       <c r="D10">
-        <v>0.00667540526406718</v>
+        <v>0.07081771948327864</v>
       </c>
       <c r="E10">
         <v>2.89488124401165</v>
@@ -661,7 +658,7 @@
         <v>5.028707629585581</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.480148228015266</v>
+        <v>-1.309922261347858</v>
       </c>
       <c r="D11">
-        <v>0.1390213010477503</v>
+        <v>0.2037361315814943</v>
       </c>
       <c r="E11">
         <v>3.864228611211119</v>
